--- a/results/FrequencyTables/26581162_sg359F.xlsx
+++ b/results/FrequencyTables/26581162_sg359F.xlsx
@@ -465,40 +465,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.0612244897959184</v>
+        <v>0.0522727272727273</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>0.00833333333333333</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>0.00984848484848485</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.0128787878787879</v>
       </c>
       <c r="F2">
-        <v>0.979591836734694</v>
+        <v>0.940909090909091</v>
       </c>
       <c r="G2">
-        <v>0.0204081632653061</v>
+        <v>0.0121212121212121</v>
       </c>
       <c r="H2">
-        <v>0.989795918367347</v>
+        <v>0.977272727272727</v>
       </c>
       <c r="I2">
-        <v>0.989795918367347</v>
+        <v>0.963636363636364</v>
       </c>
       <c r="J2">
-        <v>0.0204081632653061</v>
+        <v>0.0143939393939394</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.00606060606060606</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.0053030303030303</v>
       </c>
       <c r="M2">
-        <v>1</v>
+        <v>0.992424242424242</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.00378787878787879</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -519,19 +519,19 @@
         <v>0</v>
       </c>
       <c r="T2">
-        <v>0.0612244897959184</v>
+        <v>0.0378787878787879</v>
       </c>
       <c r="U2">
-        <v>0</v>
+        <v>0.0295454545454545</v>
       </c>
       <c r="V2">
-        <v>0</v>
+        <v>0.00303030303030303</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>0.0143939393939394</v>
       </c>
       <c r="X2">
-        <v>0.0204081632653061</v>
+        <v>0.0166666666666667</v>
       </c>
     </row>
     <row r="3" spans="1:24">
@@ -539,34 +539,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>0.0113636363636364</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>0.0143939393939394</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>0.964393939393939</v>
       </c>
       <c r="E3">
-        <v>0.0102040816326531</v>
+        <v>0.0136363636363636</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>0.00757575757575758</v>
       </c>
       <c r="G3">
-        <v>0.979591836734694</v>
+        <v>0.971212121212121</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.0128787878787879</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.00227272727272727</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.00227272727272727</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -575,34 +575,34 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1</v>
+        <v>0.998484848484849</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>0.00227272727272727</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>0.000757575757575758</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>0.00227272727272727</v>
       </c>
       <c r="R3">
-        <v>1</v>
+        <v>0.993939393939394</v>
       </c>
       <c r="S3">
-        <v>1</v>
+        <v>0.99469696969697</v>
       </c>
       <c r="T3">
         <v>0</v>
       </c>
       <c r="U3">
-        <v>0.979591836734694</v>
+        <v>0.953787878787879</v>
       </c>
       <c r="V3">
-        <v>0</v>
+        <v>0.0234848484848485</v>
       </c>
       <c r="W3">
-        <v>0</v>
+        <v>0.00227272727272727</v>
       </c>
       <c r="X3">
         <v>0</v>
@@ -613,46 +613,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>0.00984848484848485</v>
       </c>
       <c r="C4">
-        <v>0.326530612244898</v>
+        <v>0.187878787878788</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>0.00681818181818182</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.00909090909090909</v>
       </c>
       <c r="F4">
-        <v>0.0204081632653061</v>
+        <v>0.0462121212121212</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>0.00227272727272727</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.0053030303030303</v>
       </c>
       <c r="I4">
-        <v>0.0102040816326531</v>
+        <v>0.0295454545454545</v>
       </c>
       <c r="J4">
-        <v>0.979591836734694</v>
+        <v>0.984848484848485</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>0.991666666666667</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.992424242424242</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.00757575757575758</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>0.000757575757575758</v>
       </c>
       <c r="P4">
         <v>0</v>
@@ -664,22 +664,22 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>0.000757575757575758</v>
       </c>
       <c r="T4">
-        <v>0.938775510204082</v>
+        <v>0.961363636363636</v>
       </c>
       <c r="U4">
-        <v>0.0102040816326531</v>
+        <v>0.00454545454545455</v>
       </c>
       <c r="V4">
-        <v>0.0102040816326531</v>
+        <v>0.00454545454545455</v>
       </c>
       <c r="W4">
-        <v>1</v>
+        <v>0.975757575757576</v>
       </c>
       <c r="X4">
-        <v>0.979591836734694</v>
+        <v>0.981818181818182</v>
       </c>
     </row>
     <row r="5" spans="1:24">
@@ -687,28 +687,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.938775510204082</v>
+        <v>0.926515151515152</v>
       </c>
       <c r="C5">
-        <v>0.673469387755102</v>
+        <v>0.789393939393939</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>0.0189393939393939</v>
       </c>
       <c r="E5">
-        <v>0.989795918367347</v>
+        <v>0.964393939393939</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>0.0053030303030303</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>0.0143939393939394</v>
       </c>
       <c r="H5">
-        <v>0.0102040816326531</v>
+        <v>0.00454545454545455</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.00454545454545455</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -717,43 +717,43 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.00227272727272727</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.000757575757575758</v>
       </c>
       <c r="O5">
-        <v>1</v>
+        <v>0.996969696969697</v>
       </c>
       <c r="P5">
-        <v>1</v>
+        <v>0.995454545454545</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>0.997727272727273</v>
       </c>
       <c r="R5">
-        <v>0</v>
+        <v>0.00606060606060606</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>0.00454545454545455</v>
       </c>
       <c r="T5">
-        <v>0</v>
+        <v>0.000757575757575758</v>
       </c>
       <c r="U5">
-        <v>0.0102040816326531</v>
+        <v>0.0121212121212121</v>
       </c>
       <c r="V5">
-        <v>0.989795918367347</v>
+        <v>0.968939393939394</v>
       </c>
       <c r="W5">
-        <v>0</v>
+        <v>0.00681818181818182</v>
       </c>
       <c r="X5">
-        <v>0</v>
+        <v>0.000757575757575758</v>
       </c>
     </row>
   </sheetData>
